--- a/biology/Zoologie/Euselasia_manoa/Euselasia_manoa.xlsx
+++ b/biology/Zoologie/Euselasia_manoa/Euselasia_manoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia manoa est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia manoa a été nommée par Christian Brévignon en 1996[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia manoa a été nommée par Christian Brévignon en 1996
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia manoa est de couleur cuivrée,  avec aux antérieures une ligne orange séparant une partie basale et une partie distale. Aux postérieures cette ligne se continue délimitant une partie basale cuivrée unie et une partie ornée d'une fine ligne submarginale gris métallique doublée d'une ligne de points noirs surmontés d'une longue marque orange trois et au milieu de la ligne un très gros ocelle noir entouré d'orange. Le revers est noir.
 </t>
@@ -573,7 +589,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est mal connue.
 </t>
@@ -604,12 +622,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia manoa est présent uniquement en Guyane[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia manoa est présent uniquement en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_manoa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_manoa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
